--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_1_31.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_1_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1825682.914633768</v>
+        <v>1882011.010877306</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17290971.53779842</v>
+        <v>16641689.10798709</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484442</v>
+        <v>492028.9342484445</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6034753.92487224</v>
+        <v>6044107.49934149</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>319.6205266464563</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,16 +713,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>96.50503680484273</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>404.2032624633431</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>58.55279386484454</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
@@ -883,7 +883,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>156.4273818441188</v>
       </c>
     </row>
     <row r="5">
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>424.2958575201043</v>
+        <v>204.2461075661328</v>
       </c>
       <c r="D5" t="n">
-        <v>424.2958575201043</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>302.992120062679</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.443897421485418</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
@@ -1072,7 +1072,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,16 +1105,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>122.9742767430576</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
@@ -1133,19 +1133,19 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1187,16 +1187,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>32.36127543482664</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>286.6663786011224</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -1309,7 +1309,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,16 +1342,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>35.20092700998642</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>8.129390960577833</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -1376,7 +1376,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>161.4258646586657</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
@@ -1388,7 +1388,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,10 +1421,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>206.8981232563554</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1534,7 +1534,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>64.90507698037597</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
@@ -1585,7 +1585,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>71.95361350212661</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
@@ -1607,7 +1607,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>165.7499153537896</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
@@ -1658,13 +1658,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>308.8462026865831</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
@@ -1774,16 +1774,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>156.6206910823151</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>110.9855059742083</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1831,7 +1831,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1907,7 +1907,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>236.9685306508061</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
         <v>404.2032624633431</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
         <v>170.8360944016073</v>
@@ -2011,16 +2011,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>93.15725658380863</v>
       </c>
       <c r="G19" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>50.30825486907178</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2059,7 +2059,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225796</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2488,10 +2488,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>73.015146761935</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -2521,19 +2521,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>161.6379250432762</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
@@ -2728,10 +2728,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,19 +2758,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>18.05677735225723</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>172.662300743692</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
@@ -2959,7 +2959,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>163.9353622244306</v>
@@ -2968,7 +2968,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>5.990622819018972</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
         <v>157.6489550149833</v>
@@ -3007,7 +3007,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>71.95361350212656</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -3187,7 +3187,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>164.2192128704925</v>
@@ -3202,7 +3202,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225706</v>
+        <v>50.38971918733525</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3263,16 +3263,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800586</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772998</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932877</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
         <v>423.5887552948843</v>
@@ -3281,10 +3281,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>286.2388530112158</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313376</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.8153550780013</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
-        <v>217.8665548556917</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
-        <v>256.6300796561532</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
         <v>358.9907805655117</v>
@@ -3329,10 +3329,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864823</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.203262463343</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>170.8360944016073</v>
@@ -3439,10 +3439,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>18.05677735225891</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3490,7 +3490,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>27.97358346682226</v>
       </c>
     </row>
     <row r="38">
@@ -3554,7 +3554,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556925</v>
       </c>
       <c r="U38" t="n">
         <v>256.6300796561533</v>
@@ -3664,7 +3664,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>28.85560178398664</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
@@ -3673,10 +3673,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,10 +3709,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>243.4206519573293</v>
+        <v>240.273786227905</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3740,7 +3740,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>166.1625368329214</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
@@ -3758,7 +3758,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,7 +3791,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>128.2505517358782</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
         <v>256.6300796561533</v>
@@ -3898,7 +3898,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>50.38971918733593</v>
+        <v>31.24391673888106</v>
       </c>
       <c r="D43" t="n">
         <v>164.2192128704925</v>
@@ -3913,7 +3913,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -4034,7 +4034,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>91.39226931002139</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
@@ -4043,7 +4043,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>136.6047512078538</v>
       </c>
     </row>
     <row r="45">
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>133.370999537607</v>
       </c>
       <c r="D46" t="n">
         <v>164.2192128704925</v>
@@ -4150,7 +4150,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>54.66258501924847</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4192,7 +4192,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>442.640221925911</v>
+        <v>973.2914446740356</v>
       </c>
       <c r="C2" t="n">
-        <v>119.7912051113087</v>
+        <v>535.1489718574588</v>
       </c>
       <c r="D2" t="n">
-        <v>87.92182432615731</v>
+        <v>99.23918703190333</v>
       </c>
       <c r="E2" t="n">
-        <v>58.18748352485655</v>
+        <v>69.50484623060257</v>
       </c>
       <c r="F2" t="n">
-        <v>34.36045797446834</v>
+        <v>45.67782068021437</v>
       </c>
       <c r="G2" t="n">
-        <v>34.36045797446834</v>
+        <v>45.67782068021437</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>45.67782068021437</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021437</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>480.9325081331322</v>
       </c>
       <c r="K2" t="n">
-        <v>453.9965675465116</v>
+        <v>1002.975152381414</v>
       </c>
       <c r="L2" t="n">
-        <v>453.9965675465116</v>
+        <v>1002.975152381414</v>
       </c>
       <c r="M2" t="n">
-        <v>453.9965675465116</v>
+        <v>1002.975152381414</v>
       </c>
       <c r="N2" t="n">
-        <v>453.9965675465116</v>
+        <v>1002.975152381414</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1002.975152381414</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1568.238183299067</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2114.736969257661</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2283.891034010718</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2283.891034010718</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2283.891034010718</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>2186.411198854311</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>1823.794248788138</v>
       </c>
       <c r="W2" t="n">
-        <v>1292.327975491451</v>
+        <v>1822.979198239575</v>
       </c>
       <c r="X2" t="n">
-        <v>873.1855120707613</v>
+        <v>1807.87713885929</v>
       </c>
       <c r="Y2" t="n">
-        <v>464.8993883704147</v>
+        <v>1399.591015158943</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>551.8495656715072</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>445.3931045081495</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>350.3028156547027</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>256.1824009816564</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>172.798562597818</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>87.4134728640019</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021437</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>71.74149384067196</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>396.2998188068843</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>961.562849724537</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>1051.005865432608</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>1051.005865432608</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>1051.005865432608</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>1051.005865432608</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1051.005865432608</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1591.744804064684</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1708.917582159023</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1645.462144607406</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1515.283500938008</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1338.946953937976</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1139.829435999976</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>954.5066817331697</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>799.6392459720496</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>673.1534667512703</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>542.1413766661235</v>
+        <v>616.5382732275807</v>
       </c>
       <c r="C4" t="n">
-        <v>369.5796651493484</v>
+        <v>616.5382732275807</v>
       </c>
       <c r="D4" t="n">
-        <v>203.7016723508711</v>
+        <v>616.5382732275807</v>
       </c>
       <c r="E4" t="n">
-        <v>33.94366860160834</v>
+        <v>616.5382732275807</v>
       </c>
       <c r="F4" t="n">
-        <v>33.94366860160834</v>
+        <v>439.8312191893369</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>274.2399442151645</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>134.337769905539</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021437</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021437</v>
       </c>
       <c r="K4" t="n">
-        <v>308.7021231727439</v>
+        <v>196.7623387080765</v>
       </c>
       <c r="L4" t="n">
-        <v>726.9120049407049</v>
+        <v>614.9722204760376</v>
       </c>
       <c r="M4" t="n">
-        <v>726.9120049407049</v>
+        <v>1074.456087656951</v>
       </c>
       <c r="N4" t="n">
-        <v>930.0072868842942</v>
+        <v>1516.714890814595</v>
       </c>
       <c r="O4" t="n">
-        <v>1349.676536110076</v>
+        <v>1936.384140040377</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>2283.891034010718</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2283.891034010718</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>2262.47321271609</v>
       </c>
       <c r="S4" t="n">
-        <v>1537.942061378414</v>
+        <v>2103.231844014087</v>
       </c>
       <c r="T4" t="n">
-        <v>1478.797825151298</v>
+        <v>1857.352397592542</v>
       </c>
       <c r="U4" t="n">
-        <v>1478.797825151298</v>
+        <v>1578.919396845647</v>
       </c>
       <c r="V4" t="n">
-        <v>1478.797825151298</v>
+        <v>1291.963888716077</v>
       </c>
       <c r="W4" t="n">
-        <v>1206.77142073759</v>
+        <v>1019.937484302369</v>
       </c>
       <c r="X4" t="n">
-        <v>961.3796660710025</v>
+        <v>774.5457296357815</v>
       </c>
       <c r="Y4" t="n">
-        <v>733.9599953851107</v>
+        <v>616.5382732275807</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1348.708787519165</v>
+        <v>345.1411632272193</v>
       </c>
       <c r="C5" t="n">
-        <v>920.1271132564331</v>
+        <v>138.8319636654689</v>
       </c>
       <c r="D5" t="n">
-        <v>491.5454389937014</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E5" t="n">
-        <v>461.8110981924006</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465116</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L5" t="n">
-        <v>874.0494664914149</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="M5" t="n">
-        <v>874.0494664914149</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="N5" t="n">
-        <v>874.0494664914149</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="O5" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V5" t="n">
-        <v>1391.130783552459</v>
+        <v>2003.72477542213</v>
       </c>
       <c r="W5" t="n">
-        <v>1390.315733003896</v>
+        <v>1598.869320833163</v>
       </c>
       <c r="X5" t="n">
-        <v>1375.213673623611</v>
+        <v>1179.726857412474</v>
       </c>
       <c r="Y5" t="n">
-        <v>1370.967953963668</v>
+        <v>771.4407337121271</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>940.4401176967148</v>
+        <v>1043.799427915185</v>
       </c>
       <c r="C7" t="n">
-        <v>940.4401176967148</v>
+        <v>871.2377163984103</v>
       </c>
       <c r="D7" t="n">
-        <v>774.5621248982375</v>
+        <v>705.359723599933</v>
       </c>
       <c r="E7" t="n">
-        <v>604.8041211489747</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F7" t="n">
-        <v>428.0970671107308</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G7" t="n">
-        <v>262.5057921365585</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>395.2818083374338</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>395.2818083374338</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>815.3347072823371</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1235.38760622724</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1528.990655216085</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080417</v>
+        <v>2545.844385276825</v>
       </c>
       <c r="U7" t="n">
-        <v>1418.750429333523</v>
+        <v>2267.41138452993</v>
       </c>
       <c r="V7" t="n">
-        <v>1418.750429333523</v>
+        <v>1980.45587640036</v>
       </c>
       <c r="W7" t="n">
-        <v>1418.750429333523</v>
+        <v>1708.429471986652</v>
       </c>
       <c r="X7" t="n">
-        <v>1173.358674666935</v>
+        <v>1463.037717320064</v>
       </c>
       <c r="Y7" t="n">
-        <v>945.9390039810435</v>
+        <v>1235.618046634173</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>557.9336779278854</v>
+        <v>1786.86986531245</v>
       </c>
       <c r="C8" t="n">
-        <v>523.8316091517128</v>
+        <v>1348.727392495873</v>
       </c>
       <c r="D8" t="n">
-        <v>491.9622283665614</v>
+        <v>912.8176076703178</v>
       </c>
       <c r="E8" t="n">
-        <v>462.2278875652606</v>
+        <v>479.0428628286129</v>
       </c>
       <c r="F8" t="n">
-        <v>34.36045797446834</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G8" t="n">
-        <v>34.36045797446834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>34.36045797446834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>687.9235674375537</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L8" t="n">
-        <v>687.9235674375537</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M8" t="n">
-        <v>687.9235674375537</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N8" t="n">
-        <v>687.9235674375537</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O8" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>2637.372669426552</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>2637.372669426552</v>
       </c>
       <c r="W8" t="n">
-        <v>1407.621431493425</v>
+        <v>2232.517214837585</v>
       </c>
       <c r="X8" t="n">
-        <v>988.4789680727357</v>
+        <v>2217.4151554573</v>
       </c>
       <c r="Y8" t="n">
-        <v>580.1928443723891</v>
+        <v>1809.129031756954</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1024.341879988165</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>851.7801684713901</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>685.9021756729128</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>516.14417192365</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>339.4371178854062</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>173.8458429112338</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>308.7021231727439</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>726.9120049407049</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>726.9120049407049</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>761.8145120199619</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1181.483761245743</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>1697.183430080417</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>1697.183430080417</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1697.183430080417</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1688.971924059632</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1443.580169393044</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>1216.160498707152</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2522.958394689264</v>
+        <v>2252.656868168567</v>
       </c>
       <c r="C11" t="n">
-        <v>2084.815921872688</v>
+        <v>1814.51439535199</v>
       </c>
       <c r="D11" t="n">
-        <v>1648.906137047132</v>
+        <v>1378.604610526434</v>
       </c>
       <c r="E11" t="n">
-        <v>1215.131392205427</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F11" t="n">
-        <v>787.2639626146351</v>
+        <v>787.680751987495</v>
       </c>
       <c r="G11" t="n">
-        <v>385.8661312378989</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H11" t="n">
-        <v>96.73597668111519</v>
+        <v>97.15276605397517</v>
       </c>
       <c r="I11" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J11" t="n">
         <v>531.9906641340331</v>
@@ -5051,16 +5051,16 @@
         <v>2441.40092234507</v>
       </c>
       <c r="N11" t="n">
-        <v>2481.810506693463</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="O11" t="n">
-        <v>3461.990173263769</v>
+        <v>3421.580588915377</v>
       </c>
       <c r="P11" t="n">
-        <v>4290.300048097165</v>
+        <v>4249.890463748773</v>
       </c>
       <c r="Q11" t="n">
-        <v>4836.798834055759</v>
+        <v>4667.644769302702</v>
       </c>
       <c r="R11" t="n">
         <v>4836.798834055759</v>
@@ -5069,22 +5069,22 @@
         <v>4753.146960239596</v>
       </c>
       <c r="T11" t="n">
-        <v>4544.158956950349</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="U11" t="n">
-        <v>4544.158956950349</v>
+        <v>4273.857430429651</v>
       </c>
       <c r="V11" t="n">
-        <v>4181.542006884175</v>
+        <v>3911.240480363477</v>
       </c>
       <c r="W11" t="n">
-        <v>3776.686552295208</v>
+        <v>3506.385025774511</v>
       </c>
       <c r="X11" t="n">
-        <v>3357.544088874519</v>
+        <v>3087.242562353821</v>
       </c>
       <c r="Y11" t="n">
-        <v>2949.257965174172</v>
+        <v>2678.956438653474</v>
       </c>
     </row>
     <row r="12">
@@ -5112,7 +5112,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H12" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I12" t="n">
         <v>122.7996498415728</v>
@@ -5127,13 +5127,13 @@
         <v>447.3579748077851</v>
       </c>
       <c r="M12" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N12" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O12" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P12" t="n">
         <v>1102.064021433509</v>
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>806.2298140987269</v>
+        <v>999.0870832547529</v>
       </c>
       <c r="C13" t="n">
-        <v>633.6681025819519</v>
+        <v>826.5253717379778</v>
       </c>
       <c r="D13" t="n">
-        <v>467.7901097834746</v>
+        <v>660.6473789395004</v>
       </c>
       <c r="E13" t="n">
-        <v>402.229425964913</v>
+        <v>490.8893751902377</v>
       </c>
       <c r="F13" t="n">
-        <v>402.229425964913</v>
+        <v>490.8893751902377</v>
       </c>
       <c r="G13" t="n">
-        <v>236.6381509907407</v>
+        <v>325.2981002160653</v>
       </c>
       <c r="H13" t="n">
-        <v>96.73597668111519</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="I13" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J13" t="n">
-        <v>183.3156618458051</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K13" t="n">
         <v>458.0741164169406</v>
@@ -5221,28 +5221,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R13" t="n">
-        <v>2713.395586583915</v>
+        <v>2691.977765289286</v>
       </c>
       <c r="S13" t="n">
-        <v>2554.154217881911</v>
+        <v>2532.736396587283</v>
       </c>
       <c r="T13" t="n">
-        <v>2308.274771460366</v>
+        <v>2286.856950165738</v>
       </c>
       <c r="U13" t="n">
-        <v>2029.841770713471</v>
+        <v>2008.423949418843</v>
       </c>
       <c r="V13" t="n">
-        <v>1742.886262583902</v>
+        <v>1935.743531739928</v>
       </c>
       <c r="W13" t="n">
-        <v>1470.859858170193</v>
+        <v>1663.717127326219</v>
       </c>
       <c r="X13" t="n">
-        <v>1225.468103503606</v>
+        <v>1418.325372659632</v>
       </c>
       <c r="Y13" t="n">
-        <v>998.048432817714</v>
+        <v>1190.90570197374</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2523.375184062123</v>
+        <v>2252.656868168567</v>
       </c>
       <c r="C14" t="n">
         <v>2085.232711245548</v>
@@ -5270,10 +5270,10 @@
         <v>386.2829206107589</v>
       </c>
       <c r="H14" t="n">
-        <v>97.1527660539752</v>
+        <v>97.15276605397517</v>
       </c>
       <c r="I14" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J14" t="n">
         <v>531.9906641340331</v>
@@ -5282,22 +5282,22 @@
         <v>1366.340956092211</v>
       </c>
       <c r="L14" t="n">
-        <v>2312.656441940406</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M14" t="n">
-        <v>2312.656441940406</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N14" t="n">
-        <v>2312.656441940406</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="O14" t="n">
-        <v>3292.836108510713</v>
+        <v>3421.580588915377</v>
       </c>
       <c r="P14" t="n">
-        <v>4121.145983344109</v>
+        <v>4249.890463748773</v>
       </c>
       <c r="Q14" t="n">
-        <v>4667.644769302703</v>
+        <v>4796.389249707368</v>
       </c>
       <c r="R14" t="n">
         <v>4836.798834055759</v>
@@ -5306,22 +5306,22 @@
         <v>4753.146960239596</v>
       </c>
       <c r="T14" t="n">
-        <v>4753.146960239596</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="U14" t="n">
-        <v>4493.924657556613</v>
+        <v>4273.857430429651</v>
       </c>
       <c r="V14" t="n">
-        <v>4181.958796257034</v>
+        <v>3911.240480363477</v>
       </c>
       <c r="W14" t="n">
-        <v>3777.103341668068</v>
+        <v>3506.385025774511</v>
       </c>
       <c r="X14" t="n">
-        <v>3357.960878247378</v>
+        <v>3087.242562353822</v>
       </c>
       <c r="Y14" t="n">
-        <v>2949.674754547032</v>
+        <v>2678.956438653475</v>
       </c>
     </row>
     <row r="15">
@@ -5349,7 +5349,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H15" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I15" t="n">
         <v>122.7996498415728</v>
@@ -5361,16 +5361,16 @@
         <v>447.3579748077851</v>
       </c>
       <c r="L15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="N15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="O15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="P15" t="n">
         <v>1102.064021433509</v>
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1157.289801519717</v>
+        <v>1033.649484784619</v>
       </c>
       <c r="C16" t="n">
-        <v>984.7280900029425</v>
+        <v>861.0877732678438</v>
       </c>
       <c r="D16" t="n">
-        <v>818.8500972044652</v>
+        <v>695.2097804693665</v>
       </c>
       <c r="E16" t="n">
-        <v>649.0920934552024</v>
+        <v>525.4517767201039</v>
       </c>
       <c r="F16" t="n">
-        <v>490.8893751902377</v>
+        <v>348.7447226818601</v>
       </c>
       <c r="G16" t="n">
-        <v>325.2981002160653</v>
+        <v>236.6381509907407</v>
       </c>
       <c r="H16" t="n">
-        <v>185.3959259064399</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I16" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J16" t="n">
-        <v>183.3156618458051</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K16" t="n">
         <v>458.0741164169406</v>
@@ -5458,28 +5458,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R16" t="n">
-        <v>2713.395586583915</v>
+        <v>2713.395586583914</v>
       </c>
       <c r="S16" t="n">
-        <v>2713.395586583915</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T16" t="n">
-        <v>2467.51614016237</v>
+        <v>2308.274771460366</v>
       </c>
       <c r="U16" t="n">
-        <v>2189.083139415475</v>
+        <v>2029.841770713472</v>
       </c>
       <c r="V16" t="n">
-        <v>1902.127631285905</v>
+        <v>1742.886262583902</v>
       </c>
       <c r="W16" t="n">
-        <v>1630.101226872197</v>
+        <v>1470.859858170194</v>
       </c>
       <c r="X16" t="n">
-        <v>1384.709472205609</v>
+        <v>1225.468103503606</v>
       </c>
       <c r="Y16" t="n">
-        <v>1157.289801519717</v>
+        <v>1225.468103503606</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2524.805766429521</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2086.663293612944</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1650.753508787388</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1216.978763945683</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>789.1113343548909</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G17" t="n">
-        <v>387.7135029781548</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>98.58334842137108</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
-        <v>98.58334842137108</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>533.8380358742889</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>1329.965062700342</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2405.025028953201</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2405.025028953201</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>2405.025028953201</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O17" t="n">
-        <v>3385.204695523508</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P17" t="n">
-        <v>4213.514570356903</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4760.013356315498</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
-        <v>4929.167421068554</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>4845.515547252391</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4625.44832012543</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4366.226017442446</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4003.609067376273</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3598.753612787306</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3359.391460614775</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2951.105336914428</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>604.7550934126639</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>498.2986322493061</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D18" t="n">
-        <v>403.2083433958594</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E18" t="n">
-        <v>309.0879287228131</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F18" t="n">
-        <v>225.7040903389747</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>140.3190006051586</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H18" t="n">
-        <v>98.58334842137108</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>124.6470215818287</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>449.205346548041</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1644.65033180584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
-        <v>1761.82310990018</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S18" t="n">
-        <v>1698.367672348563</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T18" t="n">
-        <v>1568.189028679165</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>1391.852481679133</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V18" t="n">
-        <v>1192.734963741132</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W18" t="n">
-        <v>1007.412209474326</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>852.5447737132063</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y18" t="n">
-        <v>726.058994492427</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>999.8958045579709</v>
+        <v>1098.710185817961</v>
       </c>
       <c r="C19" t="n">
-        <v>827.3340930411958</v>
+        <v>926.1484743011862</v>
       </c>
       <c r="D19" t="n">
-        <v>661.4561002427185</v>
+        <v>760.2704815027089</v>
       </c>
       <c r="E19" t="n">
-        <v>491.6980964934558</v>
+        <v>590.5124777534462</v>
       </c>
       <c r="F19" t="n">
-        <v>314.991042455212</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G19" t="n">
-        <v>149.3997674810396</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H19" t="n">
-        <v>149.3997674810396</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
-        <v>98.58334842137108</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>185.1630335860609</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>459.9214881571966</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>878.1313699251576</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1337.61523710607</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1779.874040263715</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2199.543289489497</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2547.050183459839</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2715.242958324171</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2715.242958324171</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2556.001589622168</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T19" t="n">
-        <v>2310.122143200623</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U19" t="n">
-        <v>2031.689142453728</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V19" t="n">
-        <v>1744.733634324159</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="W19" t="n">
-        <v>1472.70722991045</v>
+        <v>1763.340229889428</v>
       </c>
       <c r="X19" t="n">
-        <v>1227.315475243863</v>
+        <v>1517.94847522284</v>
       </c>
       <c r="Y19" t="n">
-        <v>999.8958045579709</v>
+        <v>1290.528804536948</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.900047651788</v>
       </c>
       <c r="C20" t="n">
         <v>2090.757574835212</v>
@@ -5738,7 +5738,7 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G20" t="n">
         <v>391.8077842004234</v>
@@ -5759,7 +5759,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N20" t="n">
         <v>2588.899621423627</v>
@@ -5777,22 +5777,22 @@
         <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846698</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837042</v>
       </c>
       <c r="Y20" t="n">
         <v>2955.199618136696</v>
@@ -5832,19 +5832,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L21" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M21" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N21" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O21" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P21" t="n">
         <v>1107.588885023173</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>952.7568773477109</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>780.1951658309358</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>614.3171730324585</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>444.5591692831958</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
         <v>267.852115244952</v>
@@ -5996,7 +5996,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>949.5782250957674</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C25" t="n">
-        <v>777.0165135789923</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D25" t="n">
-        <v>611.138520780515</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E25" t="n">
-        <v>441.3805170312522</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F25" t="n">
-        <v>264.6734629930083</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G25" t="n">
-        <v>190.9207894961043</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H25" t="n">
         <v>190.9207894961043</v>
@@ -6169,28 +6169,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2697.502628878951</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2451.623182457407</v>
+        <v>2396.408450114731</v>
       </c>
       <c r="U25" t="n">
-        <v>2173.190181710512</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="V25" t="n">
-        <v>1886.234673580942</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W25" t="n">
-        <v>1614.208269167234</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X25" t="n">
-        <v>1368.816514500646</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y25" t="n">
-        <v>1141.396843814754</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6224,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M26" t="n">
-        <v>2588.899621423627</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C28" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D28" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324586</v>
       </c>
       <c r="E28" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F28" t="n">
-        <v>496.4142387799021</v>
+        <v>267.8521152449521</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6406,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2292.381813755403</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6461,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M29" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1092.659051657336</v>
+        <v>1004.611946844418</v>
       </c>
       <c r="C31" t="n">
-        <v>920.0973401405612</v>
+        <v>832.0502353276424</v>
       </c>
       <c r="D31" t="n">
-        <v>754.2193473420839</v>
+        <v>666.172242529165</v>
       </c>
       <c r="E31" t="n">
-        <v>584.4613435928212</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="F31" t="n">
-        <v>407.7542895545774</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G31" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6643,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2712.869316012954</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>2553.627947310951</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T31" t="n">
-        <v>2307.748500889406</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U31" t="n">
-        <v>2029.315500142511</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V31" t="n">
-        <v>2029.315500142511</v>
+        <v>1941.268395329592</v>
       </c>
       <c r="W31" t="n">
-        <v>1757.289095728803</v>
+        <v>1669.241990915884</v>
       </c>
       <c r="X31" t="n">
-        <v>1511.897341062215</v>
+        <v>1423.850236249296</v>
       </c>
       <c r="Y31" t="n">
-        <v>1284.477670376324</v>
+        <v>1196.430565563405</v>
       </c>
     </row>
     <row r="32">
@@ -6707,7 +6707,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N32" t="n">
         <v>2588.899621423627</v>
@@ -6789,10 +6789,10 @@
         <v>452.8828383974496</v>
       </c>
       <c r="N33" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O33" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P33" t="n">
         <v>1107.588885023173</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477109</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -6883,25 +6883,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2668.021743923745</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2422.142297502201</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2143.709296755306</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>1856.753788625736</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1584.727384212028</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1339.33562954544</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>1111.915958859548</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2528.900047651788</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835211</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E35" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771593</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
         <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436395</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.865819681875</v>
+        <v>525.9458847132731</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.925785934734</v>
+        <v>1601.005850966132</v>
       </c>
       <c r="M35" t="n">
-        <v>2588.899621423627</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423627</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993933</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837042</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>970.9960463903963</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C37" t="n">
-        <v>798.4343348736213</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D37" t="n">
-        <v>632.556342075144</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E37" t="n">
-        <v>462.7983383258813</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F37" t="n">
-        <v>286.0912842876376</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G37" t="n">
-        <v>120.5000093134654</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H37" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7096,13 +7096,13 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K37" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L37" t="n">
-        <v>881.8088617745664</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M37" t="n">
-        <v>1341.29272895548</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N37" t="n">
         <v>1783.551532113124</v>
@@ -7117,28 +7117,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2718.920450173579</v>
+        <v>2538.261260176948</v>
       </c>
       <c r="T37" t="n">
-        <v>2473.041003752035</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U37" t="n">
-        <v>2194.608003005141</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V37" t="n">
-        <v>1907.652494875571</v>
+        <v>1726.993304878939</v>
       </c>
       <c r="W37" t="n">
-        <v>1635.626090461863</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X37" t="n">
-        <v>1390.234335795275</v>
+        <v>1209.575145798643</v>
       </c>
       <c r="Y37" t="n">
-        <v>1162.814665109383</v>
+        <v>1181.319000882661</v>
       </c>
     </row>
     <row r="38">
@@ -7160,10 +7160,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7181,31 +7181,31 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
         <v>4187.483659846699</v>
@@ -7217,7 +7217,7 @@
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="39">
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>790.336856393764</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C40" t="n">
-        <v>617.7751448769891</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D40" t="n">
-        <v>588.6280723679116</v>
+        <v>614.3171730324585</v>
       </c>
       <c r="E40" t="n">
-        <v>418.8700686186489</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>242.1630145804051</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
         <v>102.2608402707796</v>
@@ -7357,25 +7357,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S40" t="n">
-        <v>2538.261260176948</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T40" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>2013.948813008509</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>1726.993304878939</v>
+        <v>1889.413325832885</v>
       </c>
       <c r="W40" t="n">
-        <v>1454.966900465231</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1209.575145798643</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>982.1554751127512</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2527.052675911533</v>
+        <v>2252.656868168568</v>
       </c>
       <c r="C41" t="n">
-        <v>2088.910203094956</v>
+        <v>2084.815921872688</v>
       </c>
       <c r="D41" t="n">
-        <v>1653.000418269401</v>
+        <v>1648.906137047132</v>
       </c>
       <c r="E41" t="n">
-        <v>1219.225673427696</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F41" t="n">
-        <v>791.3582438369035</v>
+        <v>787.263962614635</v>
       </c>
       <c r="G41" t="n">
-        <v>389.9604124601674</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H41" t="n">
-        <v>100.8302579033837</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I41" t="n">
-        <v>100.4134685305237</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J41" t="n">
-        <v>535.6681559834416</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K41" t="n">
-        <v>1370.01844794162</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L41" t="n">
-        <v>2445.078414194479</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M41" t="n">
-        <v>2496.531034410831</v>
+        <v>2481.810506693463</v>
       </c>
       <c r="N41" t="n">
-        <v>2496.531034410831</v>
+        <v>2481.810506693463</v>
       </c>
       <c r="O41" t="n">
-        <v>3476.710700981137</v>
+        <v>3461.990173263769</v>
       </c>
       <c r="P41" t="n">
-        <v>4305.020575814533</v>
+        <v>4290.300048097165</v>
       </c>
       <c r="Q41" t="n">
-        <v>4851.519361773128</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="R41" t="n">
-        <v>5020.673426526185</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S41" t="n">
-        <v>4937.021552710022</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T41" t="n">
-        <v>4807.475540855599</v>
+        <v>4533.079733112635</v>
       </c>
       <c r="U41" t="n">
-        <v>4548.253238172616</v>
+        <v>4273.857430429652</v>
       </c>
       <c r="V41" t="n">
-        <v>4185.636288106442</v>
+        <v>3911.240480363479</v>
       </c>
       <c r="W41" t="n">
-        <v>3780.780833517476</v>
+        <v>3506.385025774512</v>
       </c>
       <c r="X41" t="n">
-        <v>3361.638370096787</v>
+        <v>3087.242562353822</v>
       </c>
       <c r="Y41" t="n">
-        <v>2953.35224639644</v>
+        <v>2678.956438653476</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>606.5852135218165</v>
+        <v>602.907721672408</v>
       </c>
       <c r="C42" t="n">
-        <v>500.1287523584588</v>
+        <v>496.4512605090503</v>
       </c>
       <c r="D42" t="n">
-        <v>405.038463505012</v>
+        <v>401.3609716556035</v>
       </c>
       <c r="E42" t="n">
-        <v>310.9180488319657</v>
+        <v>307.2405569825572</v>
       </c>
       <c r="F42" t="n">
-        <v>227.5342104481273</v>
+        <v>223.8567185987188</v>
       </c>
       <c r="G42" t="n">
-        <v>142.1491207143112</v>
+        <v>138.4716288649027</v>
       </c>
       <c r="H42" t="n">
-        <v>100.4134685305237</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I42" t="n">
-        <v>126.4771416909813</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J42" t="n">
-        <v>451.0354666571936</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K42" t="n">
-        <v>451.0354666571936</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L42" t="n">
-        <v>451.0354666571936</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M42" t="n">
-        <v>451.0354666571936</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="N42" t="n">
-        <v>451.0354666571936</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="O42" t="n">
-        <v>451.0354666571936</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="P42" t="n">
-        <v>1105.741513282917</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="Q42" t="n">
-        <v>1646.480451914993</v>
+        <v>1642.802960065584</v>
       </c>
       <c r="R42" t="n">
-        <v>1763.653230009333</v>
+        <v>1759.975738159924</v>
       </c>
       <c r="S42" t="n">
-        <v>1700.197792457716</v>
+        <v>1696.520300608307</v>
       </c>
       <c r="T42" t="n">
-        <v>1570.019148788317</v>
+        <v>1566.341656938909</v>
       </c>
       <c r="U42" t="n">
-        <v>1393.682601788286</v>
+        <v>1390.005109938877</v>
       </c>
       <c r="V42" t="n">
-        <v>1194.565083850285</v>
+        <v>1190.887592000876</v>
       </c>
       <c r="W42" t="n">
-        <v>1009.242329583479</v>
+        <v>1005.56483773407</v>
       </c>
       <c r="X42" t="n">
-        <v>854.3748938223589</v>
+        <v>850.6974019729504</v>
       </c>
       <c r="Y42" t="n">
-        <v>727.8891146015796</v>
+        <v>724.2116227521711</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>969.1486746501397</v>
+        <v>806.2298140987269</v>
       </c>
       <c r="C43" t="n">
-        <v>918.2499684003054</v>
+        <v>774.6703022412713</v>
       </c>
       <c r="D43" t="n">
-        <v>752.3719756018281</v>
+        <v>608.792309442794</v>
       </c>
       <c r="E43" t="n">
-        <v>582.6139718525653</v>
+        <v>439.0343056935313</v>
       </c>
       <c r="F43" t="n">
-        <v>405.9069178143216</v>
+        <v>262.3272516552875</v>
       </c>
       <c r="G43" t="n">
-        <v>240.3156428401492</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="H43" t="n">
-        <v>100.4134685305237</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I43" t="n">
-        <v>100.4134685305237</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J43" t="n">
-        <v>186.9931536952136</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K43" t="n">
-        <v>461.7516082663491</v>
+        <v>458.0741164169406</v>
       </c>
       <c r="L43" t="n">
-        <v>879.9614900343101</v>
+        <v>876.2839981849017</v>
       </c>
       <c r="M43" t="n">
-        <v>1339.445357215223</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N43" t="n">
-        <v>1781.704160372868</v>
+        <v>1778.026668523459</v>
       </c>
       <c r="O43" t="n">
-        <v>2201.373409598649</v>
+        <v>2197.695917749241</v>
       </c>
       <c r="P43" t="n">
-        <v>2548.880303568991</v>
+        <v>2545.202811719583</v>
       </c>
       <c r="Q43" t="n">
-        <v>2717.073078433324</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="R43" t="n">
-        <v>2717.073078433324</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S43" t="n">
-        <v>2717.073078433324</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T43" t="n">
-        <v>2471.193632011779</v>
+        <v>2308.274771460366</v>
       </c>
       <c r="U43" t="n">
-        <v>2192.760631264884</v>
+        <v>2029.841770713471</v>
       </c>
       <c r="V43" t="n">
-        <v>1905.805123135315</v>
+        <v>1742.886262583902</v>
       </c>
       <c r="W43" t="n">
-        <v>1633.778718721606</v>
+        <v>1470.859858170193</v>
       </c>
       <c r="X43" t="n">
-        <v>1388.386964055019</v>
+        <v>1225.468103503606</v>
       </c>
       <c r="Y43" t="n">
-        <v>1160.967293369127</v>
+        <v>998.048432817714</v>
       </c>
     </row>
     <row r="44">
@@ -7634,16 +7634,16 @@
         <v>1215.131392205427</v>
       </c>
       <c r="F44" t="n">
-        <v>787.263962614635</v>
+        <v>787.2639626146351</v>
       </c>
       <c r="G44" t="n">
         <v>385.8661312378989</v>
       </c>
       <c r="H44" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I44" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J44" t="n">
         <v>531.9906641340331</v>
@@ -7652,22 +7652,22 @@
         <v>1366.340956092211</v>
       </c>
       <c r="L44" t="n">
-        <v>2312.656441940405</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M44" t="n">
-        <v>2312.656441940405</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N44" t="n">
-        <v>2312.656441940405</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="O44" t="n">
-        <v>3292.836108510712</v>
+        <v>3421.580588915377</v>
       </c>
       <c r="P44" t="n">
-        <v>4121.145983344108</v>
+        <v>4249.890463748773</v>
       </c>
       <c r="Q44" t="n">
-        <v>4667.644769302702</v>
+        <v>4796.389249707368</v>
       </c>
       <c r="R44" t="n">
         <v>4836.798834055759</v>
@@ -7676,19 +7676,19 @@
         <v>4753.146960239596</v>
       </c>
       <c r="T44" t="n">
-        <v>4533.079733112634</v>
+        <v>4533.079733112635</v>
       </c>
       <c r="U44" t="n">
-        <v>4273.857430429651</v>
+        <v>4273.857430429652</v>
       </c>
       <c r="V44" t="n">
-        <v>4181.542006884175</v>
+        <v>3911.240480363479</v>
       </c>
       <c r="W44" t="n">
-        <v>3776.686552295208</v>
+        <v>3506.385025774512</v>
       </c>
       <c r="X44" t="n">
-        <v>3357.544088874519</v>
+        <v>3087.242562353822</v>
       </c>
       <c r="Y44" t="n">
         <v>2949.257965174172</v>
@@ -7719,7 +7719,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H45" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I45" t="n">
         <v>122.7996498415728</v>
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1175.794137292997</v>
+        <v>998.0484328177145</v>
       </c>
       <c r="C46" t="n">
-        <v>1003.232425776222</v>
+        <v>863.3302514665961</v>
       </c>
       <c r="D46" t="n">
-        <v>837.3544329777443</v>
+        <v>697.4522586681188</v>
       </c>
       <c r="E46" t="n">
-        <v>667.5964292284815</v>
+        <v>527.694254918856</v>
       </c>
       <c r="F46" t="n">
-        <v>490.8893751902377</v>
+        <v>350.9872008806122</v>
       </c>
       <c r="G46" t="n">
-        <v>325.2981002160653</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="H46" t="n">
         <v>185.3959259064399</v>
       </c>
       <c r="I46" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J46" t="n">
-        <v>183.315661845805</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K46" t="n">
         <v>458.0741164169406</v>
@@ -7828,28 +7828,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R46" t="n">
-        <v>2691.977765289286</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S46" t="n">
-        <v>2636.763032946611</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T46" t="n">
-        <v>2390.883586525066</v>
+        <v>2308.274771460367</v>
       </c>
       <c r="U46" t="n">
-        <v>2112.450585778171</v>
+        <v>2029.841770713472</v>
       </c>
       <c r="V46" t="n">
-        <v>2112.450585778171</v>
+        <v>1742.886262583902</v>
       </c>
       <c r="W46" t="n">
-        <v>1840.424181364463</v>
+        <v>1470.859858170194</v>
       </c>
       <c r="X46" t="n">
-        <v>1595.032426697876</v>
+        <v>1225.468103503606</v>
       </c>
       <c r="Y46" t="n">
-        <v>1367.612756011984</v>
+        <v>998.0484328177145</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>527.3158022709918</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7991,13 +7991,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>570.9727585026795</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>570.9727585026795</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>90.34648051320312</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8137,16 +8137,16 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>152.6106242705679</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>205.1467494379689</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8228,13 +8228,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8377,19 +8377,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>296.5687363523682</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821538</v>
@@ -8450,10 +8450,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8462,16 +8462,16 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,7 +8608,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -8617,10 +8617,10 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>35.25505765581499</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
@@ -8699,7 +8699,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>40.81776196807323</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8708,10 +8708,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157522</v>
+        <v>421.9740460140702</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8775,7 +8775,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8784,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8930,7 +8930,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>955.8742281294903</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>40.81776196807186</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9009,19 +9009,19 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9164,7 +9164,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>804.1687139657103</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9407,10 +9407,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9480,22 +9480,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9644,10 +9644,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,31 +10109,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10355,10 +10355,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10437,13 +10437,13 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -10583,16 +10583,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>427.9646913560541</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10829,10 +10829,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -11066,7 +11066,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>51.97234365288114</v>
+        <v>40.81776196807323</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11154,7 +11154,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11300,7 +11300,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>955.8742281294894</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>40.81776196807277</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>268.0111327346221</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,10 +23309,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>10.96843159933636</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23422,7 +23422,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>103.1553467313941</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>212.1323395461472</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>268.0111327346213</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23546,13 +23546,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>50.14457787892866</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>18.31929241554623</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>52.94985625022226</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -23750,7 +23750,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23795,7 +23795,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>177.9825081356763</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>81.7827269140527</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>37.46509486399963</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627253</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24376,10 +24376,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>90.92021546249561</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24409,19 +24409,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>81.78272691405309</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,19 +24646,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>3.146865729424608</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>111.4236523045819</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24847,7 +24847,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>15.21302026266286</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>212.1323395461473</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25075,7 +25075,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627262</v>
+        <v>107.259235827648</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25327,10 +25327,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>120.4463752142703</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>197.1718905122106</v>
       </c>
     </row>
     <row r="38">
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>135.3636110865059</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25561,10 +25561,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -25597,10 +25597,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>3.146865729424294</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25628,7 +25628,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>267.5985112554895</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25646,7 +25646,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25679,7 +25679,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>89.61600311981357</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25786,7 +25786,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>120.4463752142714</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25801,7 +25801,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25834,7 +25834,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25922,7 +25922,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>267.5985112554903</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -25931,7 +25931,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>267.5985112554893</v>
       </c>
     </row>
     <row r="45">
@@ -26020,10 +26020,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>37.46509486400026</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26038,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>102.9863699957348</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26080,7 +26080,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>528875.7834884995</v>
+        <v>530380.0069635458</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>528875.7834884995</v>
+        <v>531370.0839000329</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>528875.7834884995</v>
+        <v>531370.0839000329</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>505780.5025418639</v>
+        <v>505780.5025418641</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>512917.5573302478</v>
+        <v>527125.0177136286</v>
       </c>
     </row>
     <row r="8">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>519987.9629252449</v>
+        <v>505780.5025418641</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>505780.5025418641</v>
+        <v>505780.5025418642</v>
       </c>
     </row>
   </sheetData>
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415514.1729150667</v>
+        <v>415514.1729150665</v>
       </c>
       <c r="C2" t="n">
-        <v>415514.1729150666</v>
+        <v>415514.1729150665</v>
       </c>
       <c r="D2" t="n">
-        <v>415514.1729150667</v>
+        <v>415514.1729150665</v>
       </c>
       <c r="E2" t="n">
         <v>391781.0209280492</v>
       </c>
       <c r="F2" t="n">
-        <v>391781.0209280492</v>
+        <v>391781.0209280493</v>
       </c>
       <c r="G2" t="n">
-        <v>397309.4321605106</v>
+        <v>408314.6277064481</v>
       </c>
       <c r="H2" t="n">
-        <v>408314.6277064481</v>
+        <v>408314.627706448</v>
       </c>
       <c r="I2" t="n">
         <v>408314.627706448</v>
@@ -26350,7 +26350,7 @@
         <v>408314.627706448</v>
       </c>
       <c r="O2" t="n">
-        <v>402786.2164739867</v>
+        <v>391781.0209280492</v>
       </c>
       <c r="P2" t="n">
         <v>391781.0209280492</v>
@@ -26363,40 +26363,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>191346.1037476935</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>31190.03493745907</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>234355.0220220374</v>
+        <v>161735.0752101144</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6329.211042850504</v>
+        <v>18928.52796216472</v>
       </c>
       <c r="H3" t="n">
-        <v>12402.75497996328</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>149391.5964256751</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>24846.9367839333</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>195601.1792830678</v>
+        <v>134989.9446130034</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>175300.239865111</v>
+        <v>143235.6821366787</v>
       </c>
       <c r="C4" t="n">
-        <v>175300.239865111</v>
+        <v>122130.8532251352</v>
       </c>
       <c r="D4" t="n">
-        <v>175300.239865111</v>
+        <v>122130.8532251352</v>
       </c>
       <c r="E4" t="n">
         <v>13668.38414064833</v>
@@ -26430,7 +26430,7 @@
         <v>13668.38414064833</v>
       </c>
       <c r="G4" t="n">
-        <v>13861.25833407853</v>
+        <v>14245.20557049264</v>
       </c>
       <c r="H4" t="n">
         <v>14245.20557049264</v>
@@ -26448,13 +26448,13 @@
         <v>14245.20557049264</v>
       </c>
       <c r="M4" t="n">
-        <v>14245.20557049268</v>
+        <v>14245.20557049264</v>
       </c>
       <c r="N4" t="n">
         <v>14245.20557049264</v>
       </c>
       <c r="O4" t="n">
-        <v>14052.33137706244</v>
+        <v>13668.38414064833</v>
       </c>
       <c r="P4" t="n">
         <v>13668.38414064833</v>
@@ -26467,22 +26467,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>68342.74371696291</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73519.34227764753</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="F5" t="n">
-        <v>73519.34227764753</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="G5" t="n">
-        <v>74923.34480024202</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="H5" t="n">
         <v>77718.2386057925</v>
@@ -26500,16 +26500,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>76314.236083198</v>
+        <v>73519.34227764753</v>
       </c>
       <c r="P5" t="n">
-        <v>73519.34227764752</v>
+        <v>73519.34227764753</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>38597.84425302345</v>
+        <v>12589.64331373143</v>
       </c>
       <c r="C6" t="n">
-        <v>180789.1449127333</v>
+        <v>187980.7601907146</v>
       </c>
       <c r="D6" t="n">
-        <v>180789.1449127333</v>
+        <v>219170.7951281736</v>
       </c>
       <c r="E6" t="n">
-        <v>70238.27248771593</v>
+        <v>142781.6607448421</v>
       </c>
       <c r="F6" t="n">
-        <v>304593.2945097534</v>
+        <v>304516.7359549566</v>
       </c>
       <c r="G6" t="n">
-        <v>302195.6179833395</v>
+        <v>297399.4312286155</v>
       </c>
       <c r="H6" t="n">
-        <v>303948.4285501997</v>
+        <v>316327.9591907801</v>
       </c>
       <c r="I6" t="n">
-        <v>316351.1835301628</v>
+        <v>316327.9591907801</v>
       </c>
       <c r="J6" t="n">
-        <v>205336.7181851727</v>
+        <v>166936.3627651051</v>
       </c>
       <c r="K6" t="n">
-        <v>316351.1835301628</v>
+        <v>291481.0224068468</v>
       </c>
       <c r="L6" t="n">
-        <v>316351.1835301628</v>
+        <v>316327.9591907801</v>
       </c>
       <c r="M6" t="n">
-        <v>120750.004247095</v>
+        <v>181338.0145777768</v>
       </c>
       <c r="N6" t="n">
-        <v>316351.1835301629</v>
+        <v>316327.9591907802</v>
       </c>
       <c r="O6" t="n">
-        <v>312419.6490137263</v>
+        <v>304516.7359549565</v>
       </c>
       <c r="P6" t="n">
-        <v>304593.2945097534</v>
+        <v>304516.7359549565</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>570.9727585026795</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
         <v>1209.19970851394</v>
@@ -26802,7 +26802,7 @@
         <v>1209.19970851394</v>
       </c>
       <c r="G4" t="n">
-        <v>1232.291855267139</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="H4" t="n">
         <v>1278.260503384745</v>
@@ -26826,7 +26826,7 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1255.168356631546</v>
+        <v>1209.19970851394</v>
       </c>
       <c r="P4" t="n">
         <v>1209.19970851394</v>
@@ -27009,40 +27009,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>570.9727585026795</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>96.54244810517741</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>784.9038509938355</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>23.09214675319884</v>
+        <v>69.06079487080547</v>
       </c>
       <c r="H4" t="n">
-        <v>45.96864811760646</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>570.9727585026795</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>96.54244810517741</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>784.9038509938352</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,25 +27255,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>570.9727585026795</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>96.54244810517741</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>784.9038509938355</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>23.09214675319884</v>
+        <v>69.06079487080547</v>
       </c>
       <c r="P4" t="n">
-        <v>45.96864811760646</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>114.1405214419547</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27397,7 +27397,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,16 +27433,16 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>160.1250428513105</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,19 +27582,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>184.8678580924847</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>68.718092134914</v>
       </c>
     </row>
     <row r="5">
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>229.5149405222781</v>
+      </c>
+      <c r="D5" t="n">
         <v>400</v>
-      </c>
-      <c r="C5" t="n">
-        <v>9.465190568306582</v>
-      </c>
-      <c r="D5" t="n">
-        <v>7.254829457195569</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>55.99866050283276</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>184.4565351103118</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27792,7 +27792,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,16 +27825,16 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27853,19 +27853,19 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
         <v>400</v>
       </c>
-      <c r="D8" t="n">
-        <v>400</v>
-      </c>
-      <c r="E8" t="n">
-        <v>400</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
@@ -27907,16 +27907,16 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>224.2688042213266</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>114.1405214419546</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28029,7 +28029,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,16 +28062,16 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>208.2197249473429</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>261.1767494089935</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -34696,10 +34696,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>527.3158022709918</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34711,13 +34711,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>570.9727585026795</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34778,10 +34778,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>570.9727585026795</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>90.34648051320312</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34796,7 +34796,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34857,19 +34857,19 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>152.6106242705679</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
-        <v>205.1467494379689</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34948,13 +34948,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,25 +35091,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>296.5687363523682</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35170,10 +35170,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35182,16 +35182,16 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,7 +35328,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -35337,16 +35337,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>35.25505765581499</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35419,19 +35419,19 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>40.81776196807323</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157523</v>
+        <v>421.9740460140702</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35495,7 +35495,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35504,7 +35504,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35650,7 +35650,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>955.8742281294903</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -35662,13 +35662,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.862691669754</v>
+        <v>40.81776196807186</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,19 +35729,19 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35884,7 +35884,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>804.1687139657103</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
@@ -35893,7 +35893,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35902,7 +35902,7 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157514</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
         <v>170.862691669754</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36054,7 +36054,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.908332551295</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36127,10 +36127,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36200,22 +36200,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36285,13 +36285,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645588</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
@@ -36364,10 +36364,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36528,13 +36528,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36765,13 +36765,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37075,10 +37075,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37157,13 +37157,13 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -37303,16 +37303,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850282</v>
+        <v>427.9646913560541</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -37327,7 +37327,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
@@ -37461,16 +37461,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908071</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>464.1251183645588</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N37" t="n">
         <v>446.7260637956006</v>
@@ -37549,10 +37549,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37713,13 +37713,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37786,7 +37786,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>51.97234365288114</v>
+        <v>40.81776196807323</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -37801,7 +37801,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37874,7 +37874,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -37950,7 +37950,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38020,7 +38020,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>955.8742281294894</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -38032,13 +38032,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.862691669754</v>
+        <v>40.81776196807277</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
